--- a/DBProyectoEstructuras.xlsx
+++ b/DBProyectoEstructuras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anahernandez/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anahernandez/Documents/3/ALGORITMOS Y DATOS/RecomendacionMascotas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278EC987-1E67-9245-9343-DF17F2BB2677}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE604950-4E41-C640-BA69-46C734CC2571}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="460" windowWidth="17400" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>Animal</t>
   </si>
   <si>
-    <t>Presupuesto</t>
-  </si>
-  <si>
     <t>Presupuesto (rango)</t>
   </si>
   <si>
@@ -92,30 +89,12 @@
     <t>Mario Boleres</t>
   </si>
   <si>
-    <t>0-399</t>
-  </si>
-  <si>
-    <t>400-899</t>
-  </si>
-  <si>
-    <t>900-1400</t>
-  </si>
-  <si>
     <t>Pez</t>
   </si>
   <si>
     <t>Pedro Estrada</t>
   </si>
   <si>
-    <t>Pequeño</t>
-  </si>
-  <si>
-    <t>Grande</t>
-  </si>
-  <si>
-    <t>Moderado</t>
-  </si>
-  <si>
     <t>Maria Lopez</t>
   </si>
   <si>
@@ -173,12 +152,6 @@
     <t>Conejos</t>
   </si>
   <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>4--7</t>
-  </si>
-  <si>
     <t>Pollos</t>
   </si>
   <si>
@@ -188,9 +161,6 @@
     <t>Urones</t>
   </si>
   <si>
-    <t>8--11</t>
-  </si>
-  <si>
     <t>Fernanda Moller</t>
   </si>
   <si>
@@ -203,12 +173,6 @@
     <t>Victor Aguilar</t>
   </si>
   <si>
-    <t>Extrovertida</t>
-  </si>
-  <si>
-    <t>Introvertida</t>
-  </si>
-  <si>
     <t>Julio Montenegro</t>
   </si>
   <si>
@@ -227,57 +191,6 @@
     <t>Daniel Diaz</t>
   </si>
   <si>
-    <t>Alergias</t>
-  </si>
-  <si>
-    <t>Experiencia</t>
-  </si>
-  <si>
-    <t>Niños</t>
-  </si>
-  <si>
-    <t>Actividad</t>
-  </si>
-  <si>
-    <t>CARACTERÍSTICAS</t>
-  </si>
-  <si>
-    <t>Poco presupuesto</t>
-  </si>
-  <si>
-    <t>Regular Presupuesto</t>
-  </si>
-  <si>
-    <t>Alto presupuesto</t>
-  </si>
-  <si>
-    <t>Es alérgico/a</t>
-  </si>
-  <si>
-    <t>No es alérgico/a</t>
-  </si>
-  <si>
-    <t>En gatos</t>
-  </si>
-  <si>
-    <t>En perros</t>
-  </si>
-  <si>
-    <t>En otros</t>
-  </si>
-  <si>
-    <t>sí</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Activo</t>
-  </si>
-  <si>
-    <t>No Activo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Experiencia en </t>
   </si>
   <si>
@@ -321,9 +234,6 @@
   </si>
   <si>
     <t>Presupuesto (Q)</t>
-  </si>
-  <si>
-    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -408,12 +318,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -441,6 +345,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,150 +665,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1000"/>
+  <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="10" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14" style="10" customWidth="1"/>
-    <col min="7" max="8" width="10.6640625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="14" style="10" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="10" customWidth="1"/>
+    <col min="9" max="11" width="10.6640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="4.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="20"/>
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="4">
+        <f>SUM(D2:L2)</f>
+        <v>5</v>
+      </c>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9">
+        <f>SUM(D3:L3)</f>
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="22"/>
-      <c r="O1" s="18"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
-        <v>1</v>
-      </c>
-      <c r="I2" s="10">
-        <v>1</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="4">
-        <f t="shared" ref="K2:K25" si="0">SUM(C2:I2)</f>
-        <v>6</v>
-      </c>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="9">
-        <v>500</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>3</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="9">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O3" s="9"/>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9">
-        <v>100</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
@@ -910,192 +825,187 @@
         <v>1</v>
       </c>
       <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9">
+        <f>SUM(D4:L4)</f>
+        <v>6</v>
+      </c>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
         <v>2</v>
       </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="9">
-        <f t="shared" si="0"/>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="7">
+        <f>SUM(D5:L5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="7">
+        <f>SUM(D6:L6)</f>
         <v>8</v>
       </c>
-      <c r="O4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1500</v>
-      </c>
-      <c r="C5" s="15">
+    </row>
+    <row r="7" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="7">
+        <f>SUM(D7:L7)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="16"/>
+    </row>
+    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K5" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1500</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="7">
+        <f>SUM(D8:L8)</f>
+        <v>4</v>
+      </c>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="9">
         <v>2</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>3</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>2</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="7">
-        <v>800</v>
-      </c>
-      <c r="C7" s="15">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="7">
-        <v>900</v>
-      </c>
-      <c r="C8" s="15">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="7">
-        <v>850</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -1107,754 +1017,681 @@
         <v>0</v>
       </c>
       <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="7">
+        <f>SUM(D9:L9)</f>
+        <v>3</v>
+      </c>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="7">
+        <f>SUM(D10:L10)</f>
+        <v>4</v>
+      </c>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="7">
+        <f>SUM(D11:L11)</f>
         <v>2</v>
       </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="0"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="7">
+        <f>SUM(D12:L12)</f>
+        <v>6</v>
+      </c>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="7">
+        <f>SUM(D13:L13)</f>
+        <v>3</v>
+      </c>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="7">
+        <f>SUM(D14:L14)</f>
+        <v>6</v>
+      </c>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="7">
+        <f>SUM(D15:L15)</f>
+        <v>2</v>
+      </c>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="7">
+        <f>SUM(D16:L16)</f>
+        <v>2</v>
+      </c>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="7">
+        <f>SUM(D17:L17)</f>
+        <v>3</v>
+      </c>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="7">
+        <f>SUM(D18:L18)</f>
+        <v>3</v>
+      </c>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="7">
+        <f>SUM(D19:L19)</f>
+        <v>1</v>
+      </c>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="9">
+        <v>3</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="7">
+        <f>SUM(D20:L20)</f>
+        <v>2</v>
+      </c>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="7">
+        <f>SUM(D21:L21)</f>
+        <v>6</v>
+      </c>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="7">
+        <f>SUM(D22:L22)</f>
+        <v>3</v>
+      </c>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="9">
+        <v>3</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="7">
+        <f>SUM(D23:L23)</f>
+        <v>6</v>
+      </c>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="7">
+        <f>SUM(D24:L24)</f>
         <v>5</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="7">
-        <v>950</v>
-      </c>
-      <c r="C10" s="15">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="7">
-        <f t="shared" si="0"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="9">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="7">
+        <f>SUM(D25:L25)</f>
         <v>5</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="7">
-        <v>650</v>
-      </c>
-      <c r="C11" s="15">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>3</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="7">
-        <v>520</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>2</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="15">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9">
-        <v>2</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O13" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="7">
-        <v>800</v>
-      </c>
-      <c r="C14" s="15">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9">
-        <v>3</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="7">
-        <v>450</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>2</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="O15" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="7">
-        <v>250</v>
-      </c>
-      <c r="C16" s="15">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>2</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9">
-        <v>1</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="O16" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="7">
-        <v>300</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
-        <v>3</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
-        <v>1</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="7">
-        <v>150</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>2</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="7">
-        <v>250</v>
-      </c>
-      <c r="C19" s="15">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2</v>
-      </c>
-      <c r="F19" s="9">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="7">
-        <v>300</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
-        <v>3</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9">
-        <v>1</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K20" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O20" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="7">
-        <v>750</v>
-      </c>
-      <c r="C21" s="15">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9">
-        <v>2</v>
-      </c>
-      <c r="H21" s="9">
-        <v>1</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="7">
-        <v>800</v>
-      </c>
-      <c r="C22" s="15">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9">
-        <v>2</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>1</v>
-      </c>
-      <c r="I22" s="9">
-        <v>1</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="7">
-        <v>900</v>
-      </c>
-      <c r="C23" s="15">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9">
-        <v>3</v>
-      </c>
-      <c r="F23" s="9">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9">
-        <v>1</v>
-      </c>
-      <c r="I23" s="9">
-        <v>1</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="7">
-        <v>852</v>
-      </c>
-      <c r="C24" s="15">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
-      </c>
-      <c r="G24" s="9">
-        <v>2</v>
-      </c>
-      <c r="H24" s="9">
-        <v>1</v>
-      </c>
-      <c r="I24" s="9">
-        <v>1</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K24" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="O24" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C25" s="15">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9">
-        <v>3</v>
-      </c>
-      <c r="F25" s="9">
-        <v>1</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
-        <v>1</v>
-      </c>
-      <c r="I25" s="9">
-        <v>1</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K25" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="O25" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M26" s="11"/>
-      <c r="N26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O26" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M27" s="11"/>
-      <c r="N27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P26" s="24"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P27" s="24"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2825,14 +2662,14 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="P18:P19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2844,7 +2681,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2867,41 +2704,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7">
         <v>300</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>0</v>
       </c>
       <c r="D2" s="9">
@@ -2928,47 +2765,47 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:15" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="16">
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="14">
         <v>800</v>
       </c>
-      <c r="C3" s="17">
-        <v>1</v>
-      </c>
-      <c r="D3" s="17">
-        <v>1</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
         <v>3</v>
       </c>
-      <c r="F3" s="17">
-        <v>1</v>
-      </c>
-      <c r="G3" s="17">
+      <c r="F3" s="15">
+        <v>1</v>
+      </c>
+      <c r="G3" s="15">
         <v>2</v>
       </c>
-      <c r="H3" s="17">
-        <v>1</v>
-      </c>
-      <c r="I3" s="17">
-        <v>1</v>
-      </c>
-      <c r="J3" s="16">
+      <c r="H3" s="15">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7">
         <v>150</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>0</v>
       </c>
       <c r="D4" s="9">
@@ -2999,12 +2836,12 @@
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="7">
         <v>150</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>0</v>
       </c>
       <c r="D5" s="9">
@@ -3033,12 +2870,12 @@
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="7">
         <v>150</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>0</v>
       </c>
       <c r="D6" s="9">
@@ -3067,12 +2904,12 @@
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="7">
         <v>500</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>1</v>
       </c>
       <c r="D7" s="9">
@@ -3098,20 +2935,17 @@
         <v>9</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7">
         <v>700</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>1</v>
       </c>
       <c r="D8" s="9">
@@ -3137,24 +2971,18 @@
         <v>8</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="M8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" s="7">
         <v>100</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>0</v>
       </c>
       <c r="D9" s="9">
@@ -3180,24 +3008,18 @@
         <v>2</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2</v>
-      </c>
-      <c r="O9" s="3">
-        <v>3</v>
-      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7">
         <v>200</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="13">
         <v>0</v>
       </c>
       <c r="D10" s="9">
@@ -3226,12 +3048,12 @@
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B11" s="7">
         <v>150</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>0</v>
       </c>
       <c r="D11" s="9">
@@ -3260,12 +3082,12 @@
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B12" s="7">
         <v>150</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="13">
         <v>0</v>
       </c>
       <c r="D12" s="9">
@@ -3294,12 +3116,12 @@
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B13" s="7">
         <v>300</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>0</v>
       </c>
       <c r="D13" s="9">
@@ -3328,12 +3150,12 @@
     </row>
     <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B14" s="7">
         <v>600</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="13">
         <v>1</v>
       </c>
       <c r="D14" s="9">
@@ -3362,12 +3184,12 @@
     </row>
     <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B15" s="7">
         <v>300</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <v>0</v>
       </c>
       <c r="D15" s="9">
@@ -3396,12 +3218,12 @@
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7">
         <v>1000</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="13">
         <v>2</v>
       </c>
       <c r="D16" s="9">
@@ -3430,12 +3252,12 @@
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B17" s="7">
         <v>600</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>1</v>
       </c>
       <c r="D17" s="9">
@@ -3464,12 +3286,12 @@
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B18" s="7">
         <v>100</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="13">
         <v>0</v>
       </c>
       <c r="D18" s="9">
@@ -3498,12 +3320,12 @@
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B19" s="7">
         <v>200</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>0</v>
       </c>
       <c r="D19" s="9">
@@ -3532,12 +3354,12 @@
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B20" s="7">
         <v>100</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>0</v>
       </c>
       <c r="D20" s="9">
@@ -3566,12 +3388,12 @@
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B21" s="7">
         <v>100</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="13">
         <v>0</v>
       </c>
       <c r="D21" s="9">
@@ -3600,12 +3422,12 @@
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7">
         <v>100</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>0</v>
       </c>
       <c r="D22" s="9">
@@ -3634,12 +3456,12 @@
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B23" s="7">
         <v>400</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="13">
         <v>1</v>
       </c>
       <c r="D23" s="9">

--- a/DBProyectoEstructuras.xlsx
+++ b/DBProyectoEstructuras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anahernandez/Documents/3/ALGORITMOS Y DATOS/RecomendacionMascotas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE604950-4E41-C640-BA69-46C734CC2571}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED260D7-E52E-9840-8655-96E02F53CA80}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="460" windowWidth="17400" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="460" windowWidth="17400" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>Animal</t>
   </si>
@@ -667,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+    <sheetView zoomScale="87" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -678,7 +678,7 @@
     <col min="3" max="3" width="10.6640625" style="10" customWidth="1"/>
     <col min="4" max="4" width="14" style="10" customWidth="1"/>
     <col min="5" max="6" width="10.6640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="10" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" style="10" customWidth="1"/>
     <col min="9" max="11" width="10.6640625" style="10" customWidth="1"/>
     <col min="12" max="12" width="4.5" style="10" bestFit="1" customWidth="1"/>
@@ -762,7 +762,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="4">
-        <f>SUM(D2:L2)</f>
+        <f t="shared" ref="N2:N25" si="0">SUM(D2:L2)</f>
         <v>5</v>
       </c>
       <c r="R2" s="9"/>
@@ -800,7 +800,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9">
-        <f>SUM(D3:L3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R3" s="9"/>
@@ -838,7 +838,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9">
-        <f>SUM(D4:L4)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="R4" s="9"/>
@@ -876,7 +876,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="7">
-        <f>SUM(D5:L5)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -913,7 +913,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="7">
-        <f>SUM(D6:L6)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -950,7 +950,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="7">
-        <f>SUM(D7:L7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P7" s="5"/>
@@ -990,7 +990,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="7">
-        <f>SUM(D8:L8)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P8" s="25"/>
@@ -1030,7 +1030,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="7">
-        <f>SUM(D9:L9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P9" s="25"/>
@@ -1070,7 +1070,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="7">
-        <f>SUM(D10:L10)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="P10" s="25"/>
@@ -1110,7 +1110,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="7">
-        <f>SUM(D11:L11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P11" s="25"/>
@@ -1150,7 +1150,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="7">
-        <f>SUM(D12:L12)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P12" s="25"/>
@@ -1190,7 +1190,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="7">
-        <f>SUM(D13:L13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P13" s="25"/>
@@ -1230,7 +1230,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="7">
-        <f>SUM(D14:L14)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P14" s="25"/>
@@ -1270,7 +1270,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="7">
-        <f>SUM(D15:L15)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P15" s="25"/>
@@ -1310,7 +1310,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="7">
-        <f>SUM(D16:L16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P16" s="24"/>
@@ -1350,7 +1350,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="7">
-        <f>SUM(D17:L17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P17" s="24"/>
@@ -1390,7 +1390,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="7">
-        <f>SUM(D18:L18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P18" s="24"/>
@@ -1430,7 +1430,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="7">
-        <f>SUM(D19:L19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P19" s="24"/>
@@ -1470,7 +1470,7 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="7">
-        <f>SUM(D20:L20)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P20" s="24"/>
@@ -1510,7 +1510,7 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="7">
-        <f>SUM(D21:L21)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P21" s="24"/>
@@ -1550,7 +1550,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="7">
-        <f>SUM(D22:L22)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P22" s="24"/>
@@ -1590,7 +1590,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="7">
-        <f>SUM(D23:L23)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P23" s="24"/>
@@ -1630,7 +1630,7 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="7">
-        <f>SUM(D24:L24)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P24" s="24"/>
@@ -1670,7 +1670,7 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="7">
-        <f>SUM(D25:L25)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P25" s="24"/>
@@ -2680,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2727,9 +2727,7 @@
       <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>9</v>
-      </c>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2759,10 +2757,7 @@
       <c r="I2" s="9">
         <v>0</v>
       </c>
-      <c r="J2" s="7">
-        <f t="shared" ref="J2:J23" si="0">SUM(C2:I2)</f>
-        <v>6</v>
-      </c>
+      <c r="J2" s="7"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:15" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2793,10 +2788,7 @@
       <c r="I3" s="15">
         <v>1</v>
       </c>
-      <c r="J3" s="14">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2826,10 +2818,7 @@
       <c r="I4" s="9">
         <v>0</v>
       </c>
-      <c r="J4" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="J4" s="7"/>
       <c r="K4" s="6"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2862,10 +2851,7 @@
       <c r="I5" s="9">
         <v>0</v>
       </c>
-      <c r="J5" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="J5" s="7"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2896,10 +2882,7 @@
       <c r="I6" s="9">
         <v>0</v>
       </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="J6" s="7"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2930,10 +2913,7 @@
       <c r="I7" s="9">
         <v>1</v>
       </c>
-      <c r="J7" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
+      <c r="J7" s="7"/>
       <c r="K7" s="6"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2966,10 +2946,7 @@
       <c r="I8" s="9">
         <v>1</v>
       </c>
-      <c r="J8" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="J8" s="7"/>
       <c r="K8" s="6"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -3003,10 +2980,7 @@
       <c r="I9" s="9">
         <v>0</v>
       </c>
-      <c r="J9" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="J9" s="7"/>
       <c r="K9" s="6"/>
       <c r="M9" s="3"/>
       <c r="N9" s="2"/>
@@ -3040,10 +3014,7 @@
       <c r="I10" s="9">
         <v>0</v>
       </c>
-      <c r="J10" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="J10" s="7"/>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3074,10 +3045,7 @@
       <c r="I11" s="9">
         <v>0</v>
       </c>
-      <c r="J11" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="J11" s="7"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3108,10 +3076,7 @@
       <c r="I12" s="9">
         <v>0</v>
       </c>
-      <c r="J12" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="J12" s="7"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3142,10 +3107,7 @@
       <c r="I13" s="9">
         <v>0</v>
       </c>
-      <c r="J13" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3176,10 +3138,7 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-      <c r="J14" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="J14" s="7"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3210,10 +3169,7 @@
       <c r="I15" s="9">
         <v>0</v>
       </c>
-      <c r="J15" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="J15" s="7"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3244,10 +3200,7 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-      <c r="J16" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="J16" s="7"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3278,10 +3231,7 @@
       <c r="I17" s="9">
         <v>1</v>
       </c>
-      <c r="J17" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="J17" s="7"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3312,10 +3262,7 @@
       <c r="I18" s="9">
         <v>0</v>
       </c>
-      <c r="J18" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="J18" s="7"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3346,10 +3293,7 @@
       <c r="I19" s="9">
         <v>0</v>
       </c>
-      <c r="J19" s="7">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="J19" s="7"/>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3380,10 +3324,7 @@
       <c r="I20" s="9">
         <v>0</v>
       </c>
-      <c r="J20" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="J20" s="7"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3414,10 +3355,7 @@
       <c r="I21" s="9">
         <v>1</v>
       </c>
-      <c r="J21" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="J21" s="7"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3448,10 +3386,7 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-      <c r="J22" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="J22" s="7"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3482,10 +3417,7 @@
       <c r="I23" s="9">
         <v>1</v>
       </c>
-      <c r="J23" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="J23" s="7"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
